--- a/testcopy4.xlsx
+++ b/testcopy4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t xml:space="preserve">Pallavi </t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Wdqwdqw</t>
+  </si>
+  <si>
+    <t>Modify</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,9 @@
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
+      <c r="B5" t="s" s="2">
+        <v>6</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
